--- a/Data/Working File_RAS_GHA.xlsx
+++ b/Data/Working File_RAS_GHA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12885"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="ForBilling" sheetId="1" r:id="rId1"/>
@@ -1245,10 +1245,10 @@
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
